--- a/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_马丁组.xlsx
+++ b/VersionRecords/Version 5.1.7/版本Bug和特性计划及评审表v5.1.7_马丁组.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\M 模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitDoc\Mogo_Doc\VersionRecords\Version 5.1.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="13056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="版本X.X.X 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="78">
   <si>
     <t>No</t>
   </si>
@@ -251,12 +251,47 @@
   <si>
     <t>执行结果及报错补救方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>58对接二期</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>房东PC，BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+  </si>
+  <si>
+    <t>李萌</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>安栋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1316,36 +1351,36 @@
   <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" style="32" customWidth="1"/>
-    <col min="2" max="3" width="9.88671875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
+    <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="20.375" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="32" customWidth="1"/>
-    <col min="8" max="8" width="12.109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" style="32" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" style="33" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" style="32" customWidth="1"/>
-    <col min="13" max="13" width="15.88671875" style="32" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="12.375" style="33" customWidth="1"/>
+    <col min="11" max="11" width="10.25" style="33" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="32" customWidth="1"/>
+    <col min="13" max="13" width="15.875" style="32" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="32" customWidth="1"/>
     <col min="15" max="15" width="10" style="33" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" style="33" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="33" customWidth="1"/>
+    <col min="17" max="17" width="7.625" style="33" customWidth="1"/>
     <col min="18" max="18" width="12" style="34" customWidth="1"/>
     <col min="19" max="19" width="17" style="34" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" style="34" customWidth="1"/>
-    <col min="21" max="21" width="41.88671875" style="33" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" customWidth="1"/>
+    <col min="20" max="20" width="14.125" style="34" customWidth="1"/>
+    <col min="21" max="21" width="41.875" style="33" customWidth="1"/>
+    <col min="22" max="22" width="8.875" customWidth="1"/>
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1410,21 +1445,47 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="39"/>
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="39">
+        <v>42716</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="39">
+        <v>42716</v>
+      </c>
       <c r="K2" s="38"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="L2" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>76</v>
+      </c>
       <c r="O2" s="47"/>
       <c r="P2" s="39"/>
       <c r="Q2" s="47"/>
@@ -1434,7 +1495,7 @@
       <c r="U2" s="53"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -1458,7 +1519,7 @@
       <c r="U3" s="55"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -1482,7 +1543,7 @@
       <c r="U4" s="53"/>
       <c r="V4" s="54"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1506,7 +1567,7 @@
       <c r="U5" s="55"/>
       <c r="V5" s="54"/>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -1530,7 +1591,7 @@
       <c r="U6" s="55"/>
       <c r="V6" s="54"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1554,7 +1615,7 @@
       <c r="U7" s="55"/>
       <c r="V7" s="54"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -1578,7 +1639,7 @@
       <c r="U8" s="55"/>
       <c r="V8" s="54"/>
     </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1602,7 +1663,7 @@
       <c r="U9" s="55"/>
       <c r="V9" s="54"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1626,7 +1687,7 @@
       <c r="U10" s="55"/>
       <c r="V10" s="54"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1650,7 +1711,7 @@
       <c r="U11" s="55"/>
       <c r="V11" s="54"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1674,7 +1735,7 @@
       <c r="U12" s="55"/>
       <c r="V12" s="54"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -1698,7 +1759,7 @@
       <c r="U13" s="55"/>
       <c r="V13" s="54"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -1722,7 +1783,7 @@
       <c r="U14" s="55"/>
       <c r="V14" s="54"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -1746,7 +1807,7 @@
       <c r="U15" s="55"/>
       <c r="V15" s="54"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -1770,7 +1831,7 @@
       <c r="U16" s="55"/>
       <c r="V16" s="54"/>
     </row>
-    <row r="17" spans="1:22" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1794,7 +1855,7 @@
       <c r="U17" s="57"/>
       <c r="V17" s="54"/>
     </row>
-    <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1817,7 +1878,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1840,7 +1901,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1863,7 +1924,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="45"/>
     </row>
-    <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1886,7 +1947,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="55"/>
     </row>
-    <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -1909,7 +1970,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1932,7 +1993,7 @@
       <c r="T23" s="44"/>
       <c r="U23" s="55"/>
     </row>
-    <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -1955,7 +2016,7 @@
       <c r="T24" s="58"/>
       <c r="U24" s="59"/>
     </row>
-    <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -1978,7 +2039,7 @@
       <c r="T25" s="60"/>
       <c r="U25" s="59"/>
     </row>
-    <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2001,7 +2062,7 @@
       <c r="T26" s="61"/>
       <c r="U26" s="59"/>
     </row>
-    <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2024,7 +2085,7 @@
       <c r="T27" s="60"/>
       <c r="U27" s="59"/>
     </row>
-    <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2047,7 +2108,7 @@
       <c r="T28" s="60"/>
       <c r="U28" s="59"/>
     </row>
-    <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2070,7 +2131,7 @@
       <c r="T29" s="56"/>
       <c r="U29" s="47"/>
     </row>
-    <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2093,7 +2154,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="55"/>
     </row>
-    <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2116,7 +2177,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="55"/>
     </row>
-    <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2139,7 +2200,7 @@
       <c r="T32" s="44"/>
       <c r="U32" s="55"/>
     </row>
-    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2162,7 +2223,7 @@
       <c r="T33" s="60"/>
       <c r="U33" s="59"/>
     </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2187,7 +2248,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2210,7 +2271,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="55"/>
     </row>
-    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2233,7 +2294,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="55"/>
     </row>
-    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2256,7 +2317,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="55"/>
     </row>
-    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2279,7 +2340,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="55"/>
     </row>
-    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2302,7 +2363,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="55"/>
     </row>
-    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2325,7 +2386,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="55"/>
     </row>
-    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2348,7 +2409,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="55"/>
     </row>
-    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2371,7 +2432,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="55"/>
     </row>
-    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2394,7 +2455,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="55"/>
     </row>
-    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2417,7 +2478,7 @@
       <c r="T44" s="44"/>
       <c r="U44" s="55"/>
     </row>
-    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2440,7 +2501,7 @@
       <c r="T45" s="56"/>
       <c r="U45" s="55"/>
     </row>
-    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2463,7 +2524,7 @@
       <c r="T46" s="56"/>
       <c r="U46" s="55"/>
     </row>
-    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2486,7 +2547,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2509,7 +2570,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2532,7 +2593,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2555,7 +2616,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2578,7 +2639,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2601,7 +2662,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="36"/>
       <c r="B53" s="36"/>
       <c r="C53" s="36"/>
@@ -2624,7 +2685,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -2647,7 +2708,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2670,7 +2731,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -2693,7 +2754,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -2716,7 +2777,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -2739,7 +2800,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -2762,7 +2823,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -2785,7 +2846,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -2808,7 +2869,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -2831,7 +2892,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -2854,7 +2915,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -2877,7 +2938,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -2900,7 +2961,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -2923,7 +2984,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -2946,7 +3007,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -2969,7 +3030,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -2992,7 +3053,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3015,7 +3076,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3038,7 +3099,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3061,7 +3122,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3084,7 +3145,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3107,7 +3168,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3130,7 +3191,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3153,7 +3214,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3176,7 +3237,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3199,7 +3260,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3222,7 +3283,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3245,7 +3306,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3268,7 +3329,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3291,7 +3352,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3314,7 +3375,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3337,7 +3398,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3360,7 +3421,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3383,7 +3444,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3406,7 +3467,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3429,7 +3490,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3452,7 +3513,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3475,7 +3536,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3498,7 +3559,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3521,7 +3582,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3544,7 +3605,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -3567,7 +3628,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -3590,7 +3651,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -3613,7 +3674,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -3636,7 +3697,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -3659,7 +3720,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -3682,7 +3743,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -3705,7 +3766,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -3728,7 +3789,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -3751,7 +3812,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -3774,7 +3835,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -3797,7 +3858,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -3820,7 +3881,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -3843,7 +3904,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -3866,7 +3927,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -3889,7 +3950,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -3912,7 +3973,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -3935,7 +3996,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -3958,7 +4019,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -3981,7 +4042,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4004,7 +4065,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4027,7 +4088,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4050,7 +4111,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4073,7 +4134,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4096,7 +4157,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4119,7 +4180,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4142,7 +4203,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4165,7 +4226,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4188,7 +4249,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4211,7 +4272,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4234,7 +4295,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4257,7 +4318,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4280,7 +4341,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4303,7 +4364,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4326,7 +4387,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4349,7 +4410,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4372,7 +4433,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4395,7 +4456,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4418,7 +4479,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4441,7 +4502,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4464,7 +4525,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4487,7 +4548,7 @@
       <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4510,7 +4571,7 @@
       <c r="T135" s="44"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4530,7 +4591,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4550,7 +4611,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -4570,7 +4631,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -4590,7 +4651,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -4610,7 +4671,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -4630,7 +4691,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -4650,7 +4711,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -4670,7 +4731,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -4690,7 +4751,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -4710,7 +4771,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -4730,7 +4791,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -4750,7 +4811,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -4770,7 +4831,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -4790,7 +4851,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -4810,7 +4871,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -4830,7 +4891,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -4850,7 +4911,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -4870,7 +4931,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -4890,7 +4951,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -4910,7 +4971,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -4930,7 +4991,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -4950,7 +5011,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -4970,7 +5031,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -4990,7 +5051,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5010,7 +5071,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5030,7 +5091,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5050,7 +5111,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5070,7 +5131,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5090,7 +5151,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5110,7 +5171,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5130,7 +5191,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5150,7 +5211,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5170,7 +5231,7 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5190,7 +5251,7 @@
       <c r="Q169" s="45"/>
       <c r="U169" s="45"/>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A170" s="44"/>
       <c r="B170" s="44"/>
       <c r="C170" s="44"/>
@@ -5216,10 +5277,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3 I4 I7 I8 G1:G1048576 I1:I2 I5:I6 I9:I1048576 T1:T1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 T1:T1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M3 M4 M5 M6 M7 M8 M1:M2 M9:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3 M1:M1048576">
       <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
@@ -5248,27 +5309,27 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="44.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="54.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="54.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>54</v>
       </c>
@@ -5324,7 +5385,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5344,7 +5405,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="66"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5364,7 +5425,7 @@
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5398,19 +5459,20 @@
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.21875" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="19.625" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="77" t="s">
         <v>53</v>
       </c>
@@ -5425,7 +5487,7 @@
       <c r="J1" s="78"/>
       <c r="K1" s="78"/>
     </row>
-    <row r="2" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
@@ -5460,7 +5522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="20"/>
@@ -5473,7 +5535,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="80"/>
       <c r="B4" s="81"/>
       <c r="C4" s="20"/>
@@ -5486,7 +5548,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="79"/>
       <c r="B5" s="79"/>
       <c r="C5" s="20"/>
@@ -5499,7 +5561,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="81"/>
       <c r="B6" s="81"/>
       <c r="C6" s="20"/>
@@ -5512,7 +5574,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="81"/>
       <c r="B7" s="81"/>
       <c r="C7" s="20"/>
@@ -5525,7 +5587,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="81"/>
       <c r="B8" s="81"/>
       <c r="C8" s="20"/>
@@ -5538,7 +5600,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="81"/>
       <c r="B9" s="81"/>
       <c r="C9" s="20"/>
@@ -5551,7 +5613,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="16.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="80"/>
       <c r="B10" s="80"/>
       <c r="C10" s="20"/>
@@ -5564,7 +5626,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5598,22 +5660,22 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="57.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="57.25" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.77734375" customWidth="1"/>
+    <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -5630,7 +5692,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -5645,7 +5707,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -5686,7 +5748,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -5701,7 +5763,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5716,7 +5778,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5731,7 +5793,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5746,7 +5808,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5761,7 +5823,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5776,7 +5838,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5791,7 +5853,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5806,7 +5868,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5821,7 +5883,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5836,7 +5898,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5851,7 +5913,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5866,7 +5928,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5912,22 +5974,22 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="57.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="57.25" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.77734375" customWidth="1"/>
+    <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -5944,7 +6006,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -5959,7 +6021,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6000,7 +6062,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6015,7 +6077,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6030,7 +6092,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6045,7 +6107,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6060,7 +6122,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6075,7 +6137,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6090,7 +6152,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6105,7 +6167,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6120,7 +6182,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6135,7 +6197,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6150,7 +6212,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6165,7 +6227,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6180,7 +6242,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6226,22 +6288,22 @@
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="3" width="6.33203125" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="32.77734375" customWidth="1"/>
-    <col min="6" max="6" width="4.77734375" customWidth="1"/>
-    <col min="7" max="7" width="57.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="3" width="6.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="57.25" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="11" width="6.33203125" customWidth="1"/>
+    <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.77734375" customWidth="1"/>
+    <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -6258,7 +6320,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -6273,7 +6335,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6314,7 +6376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6329,7 +6391,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6344,7 +6406,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6359,7 +6421,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6374,7 +6436,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6389,7 +6451,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6404,7 +6466,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6419,7 +6481,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6434,7 +6496,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6449,7 +6511,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6464,7 +6526,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6479,7 +6541,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6494,7 +6556,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6540,24 +6602,24 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" customWidth="1"/>
-    <col min="7" max="7" width="57.21875" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
+    <col min="1" max="1" width="4.75" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" customWidth="1"/>
+    <col min="5" max="5" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="57.25" customWidth="1"/>
+    <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.75" customWidth="1"/>
+    <col min="11" max="11" width="7.5" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.77734375" customWidth="1"/>
+    <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="82" t="s">
         <v>22</v>
       </c>
@@ -6574,7 +6636,7 @@
       <c r="L1" s="82"/>
       <c r="M1" s="83"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="84"/>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -6589,7 +6651,7 @@
       <c r="L2" s="84"/>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6630,7 +6692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6645,7 +6707,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6660,7 +6722,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6675,7 +6737,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6690,7 +6752,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6705,7 +6767,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6720,7 +6782,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6735,7 +6797,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6750,7 +6812,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6765,7 +6827,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6780,7 +6842,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6795,7 +6857,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6810,7 +6872,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6856,18 +6918,18 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="2" max="2" width="43.125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="42.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="7" max="7" width="42.125" customWidth="1"/>
+    <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -6893,7 +6955,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6903,7 +6965,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6913,7 +6975,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6923,7 +6985,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6933,7 +6995,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6943,7 +7005,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6953,7 +7015,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6963,7 +7025,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6973,7 +7035,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6983,7 +7045,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6993,7 +7055,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7003,7 +7065,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7013,7 +7075,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7023,7 +7085,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7033,7 +7095,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7043,7 +7105,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7053,7 +7115,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7063,7 +7125,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
